--- a/wxbg.xlsx
+++ b/wxbg.xlsx
@@ -2,42 +2,43 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaoyongmao/dev/aiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281A42D-C58B-C34D-99AD-0DE4F923631D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05896203-EA7A-FA47-8F4C-F7297B50B90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="500" windowWidth="33400" windowHeight="17360" activeTab="1" xr2:uid="{D4B0F0A5-01E8-8445-9A9F-D2561FCA0B4F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="微信出车报告" sheetId="1" r:id="rId1"/>
-    <sheet name="pp" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>导入日期</t>
+  </si>
+  <si>
+    <t>报告发送人</t>
+  </si>
+  <si>
+    <t>来自微信的出车报告</t>
+  </si>
+  <si>
+    <t>导入</t>
+  </si>
+  <si>
+    <t>2025/08/26</t>
+  </si>
   <si>
     <t>日期:2025年8月12日
 司机:赵江
@@ -50,7 +51,6 @@
 高速：20
 停车：28
 客户:苏小姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出车报告:
@@ -67,7 +67,6 @@
 高速费用:元
 停车费用:元
 出车行程:嘉里公寓-望京研发中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出车报告:
@@ -84,7 +83,6 @@
 高速费用:元
 停车费用:1.5元
 出车行程:望京研发中心-嘉里公寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出车报告:
@@ -101,15 +99,346 @@
 高速费用:11元
 停车费用:元
 出车行程:三里屯-大兴机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自微信的出车报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2025年1月1日
+司机：段玉岗
+手机：13611208376
+车型：别克 653T
+车牌：京KJP358
+----------------------------------
+客户:刘英杰主任
+电话：13134218019
+时间：11:40--15:30
+行程:北京南站…西苑饭店…北京南站…花家怡园四合总店…西苑饭店
+公里：60
+停车费：11
+备注：已完成</t>
+  </si>
+  <si>
+    <t>日期：2025年1月2日
+司机：段玉岗
+手机：13611208376
+车型：别克 653T
+车牌：京PPG967
+----------------------------------
+客户:刘英杰主任
+电话：13134218019
+时间：9:00--21:45
+行程:西苑饭店…北京南站…鸽子张家宴鸟巢店…国家体育馆…中央美术学院…798艺术区…西苑饭店…南门涮肉北洼路店…西苑饭店
+公里：87
+停车费：53
+备注：已完成</t>
+  </si>
+  <si>
+    <t>日期：2025年1月2日
+司机：刘平
+手机：18801347150
+车型：别克 653T
+车牌：京KJP358
+-----------------------------
+客人：刘英杰
+电话：
+时间:9:00……20:37
+行程：西苑饭店……北京南站……鸽子张家宴鸟巢店……南门涮肉北哇路店……聚宝源……西苑饭店……北京南站……南门涮肉北洼路店，
+公里：106
+高速费：
+停车费57</t>
+  </si>
+  <si>
+    <t>日期：2025年1月3日
+司机：段玉岗
+手机：13611208376
+车型：别克 653T
+车牌：京PPG967
+----------------------------------
+客户:刘英杰主任
+电话：13134218019
+时间：8:00--14:10
+行程:西苑饭店…中国建筑科技展…果然居…清河站
+公里：52
+停车费：19
+备注：已完成</t>
+  </si>
+  <si>
+    <t>1月2-3日考斯特
+司机：闫新光
+手机：13671196168,
+车号：京AUL266
+====================================
+考斯特司机:闫新光,
+车号:京AUL266
+1月2日14:30-21:40,南站-西苑饭店-南门涮肉-西苑饭店,
+1月3日7:40-14:00,西苑饭店-首钢园-果然居顺德菜-南站,停车12元
+====================================
+出车报告:
+出车日期:2025.1.3
+车型:奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:15810472035
+时间:19:18～22:06
+用车时长:2小时48分
+超出小时: 
+行驶里程:60公里
+超公里数:
+高速费用:11元
+停车费用:27元
+出车行程:大兴机场-嘉里大酒店</t>
+  </si>
+  <si>
+    <t>城市：北京
+时间：1月6号（接机）
+人数：2位
+航班信息：CZ346, 13:40
+路线：北京大兴机场→→北京香格里拉
+举牌子：Avakova Karine （给卡丽娜）
+车子：奔驰E级
+——————————
+车型：奔驰E300
+车号：京A5SS75
+司机：杨孟冬
+手机：13261128906</t>
+  </si>
+  <si>
+    <t>接机牌：Mr.Mads.GyIdenberg
+行程安排如下：
+起点：首都机场T3
+终点：世贸工三国际公寓
+车型：奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252                         出车报告:
+出车日期:2025.1.7
+车型:豪华奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252
+时间:16：15～17：01
+用车时长:46分钟
+超出小时: 
+行驶里程:23公里
+超公里数:
+高速费用:9.5元
+停车费用:
+出车行程:首都机场T3～世茂工三酒店</t>
+  </si>
+  <si>
+    <t>别克：商务车
+师傅：郑文陆
+电话：13530164543
+日期1月811点45到17点10分
+行程：深圳机场/福田香格里拉/证券交易所/福田香格里拉
+里程：74
+高速费：13
+停车费：10
+歺补：1</t>
+  </si>
+  <si>
+    <t>上车时间：2025年1月9日08:40分
+行程：深圳福田香格里拉酒店——康泰集团大厦（地址：深圳市蜀海街道科发路222号）——预计10:30分左右结束会议，送至香港The Pottinger Hong Kong酒店（地址：香港中西区中环皇后大道74号）
+联系人：待定
+————————————
+服务司机：林司机
+电话：+86 15989856377
+香港：+852  69401377
+香港车牌：ZH135
+大陆车牌：粤ZBA42港（香槟金）
+====================================
+周坤13810575150
+1月10日06:10从大钟寺太阳园西门出发！
+司机:杜国昌
+电话:13601100528 
+电话:京ND05Z8
+车型:本田雅阁
+公里：30
+时间6:00～6:40
+客人:周坤老师
+电话13810575150
+行程:太阳园～首都机场</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+司机:房竣峰
+电话:17501177839
+车号:京AZW229
+车型:天籁 
+行程：石景山法院～..首都T3
+开始时间：6:10
+结束时间：7:00
+里程：50公里
+备注：行程结束</t>
+  </si>
+  <si>
+    <t>姓名:张师傅
+电话:15810472035                         出车报告:
+出车日期:2025.1.10
+车型:奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:15810472035
+时间:20:40～21:50
+用车时长:1小时10分
+超出小时: 
+行驶里程:34公里
+超公里数:
+高速费用:10元
+停车费用:9元
+出车行程:首都T3机场-太阳园西门</t>
+  </si>
+  <si>
+    <t>订单1（更新版）
+客户：Glencore
+用车地：上海
+乘客姓名：David Thomas， Joshua Berman
+日期：2025.1.13（周一）
+时间：16:50
+航班：LH726 
+联系人：蔡舒惟
+电话：139 1017 0147
+行程：上海浦东T2-餐厅
+餐厅地址：黄浦区圆明园路88号益外滩源2楼西侧201</t>
+  </si>
+  <si>
+    <t>客户：Glencore
+用车地：上海
+乘客姓名：David Thomas
+日期：2025.1.13（周一）
+时间：22:00
+航班：CX362
+联系人：蔡舒惟
+电话：139 1017 0147
+行程：上海浦东T2-上海艾迪逊酒店
+车型：GL8
+车号：沪EBM665
+司机：张绪想
+手机：16621708189</t>
+  </si>
+  <si>
+    <t>客户：Glencore
+用车地：上海
+乘客姓名：Joshua Berman
+日期：2025.1.14(周二）
+时间：早上8:25
+航班：LX188
+联系人：蔡舒惟
+电话：139 1017 0147
+行程：上海浦东T2-上海艾迪逊酒店
+车型：GL8
+车号：沪EBM665
+司机：张绪想
+手机：16621708189</t>
+  </si>
+  <si>
+    <t>车型:奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252                          出车报告:
+出车日期:2025.1.15
+车型:豪华奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252
+时间:15：20～20：40
+用车时长:5.5小时
+超出小时: 
+行驶里程:54公里
+超公里数:
+高速费用:13.3元
+停车费用:38.25元
+出车行程:大兴机场-首都宾馆-北京国际饭店- 首都宾馆</t>
+  </si>
+  <si>
+    <t>司机姓名：孟庆顺
+司机电话：15001336636
+出车日期:2024-1-17
+车辆型号:7座商务车
+车牌号码:京MDL173
+__________________________
+客人姓名：陈处长
+客人电话：18505918089
+起止时间:09.30-10.40
+用车时长:1小时10分钟
+用车行程：首都宾馆~大兴机场
+行驶里程：51公里
+停车费：~元
+过路费：11元</t>
+  </si>
+  <si>
+    <t>车型：别克GL8653T
+车号：京ND1575
+姓名：陶武胜
+手机：13552794488
+司机：孟庆顺
+电话：15001336636
+车号：京MDL173
+车型：GL8-653T</t>
+  </si>
+  <si>
+    <t>出车报告:
+出车日期:2025.1.20
+车型:豪华奔驰V260L
+车牌:京P03156
+姓名:张师傅
+电话:13693042252
+时间:9：02～10：06
+用车时长:64分钟
+超出小时: 
+行驶里程:29公里
+超公里数:
+高速费用:9.5元
+停车费用:4.5
+出车行程:首都机场T3航站楼～东方君悦酒店</t>
+  </si>
+  <si>
+    <t>车牌：沪ESF702
+电话：18017191155
+车型：奔驰E
+司机：石杰                                     出车日期：1/21
+起止时间：14:00—20:40
+出车司机:石杰
+车辆型号：奔驰E
+车牌号码：沪ESF702
+用车行程：波特曼—苏州恒力—波特曼—宝龙艾美酒店
+行驶公里：240</t>
+  </si>
+  <si>
+    <t>航班号：CX6112
+到达时间：18:00
+北京首都机场T3到国贸公寓
+行程安排如下：
+司机：康师傅
+手机：18600007271
+车型：奔驰V260L
+车号：京P03156                             出车报告:
+出车日期:2025.1.31
+车型:奔驰V260L
+车牌:京P03156
+姓名:康师傅
+电话:18600007271
+时间:18：00～19：30
+用车时长:1.5小时
+超出小时: 
+行驶里程:30公里
+超公里数:
+高速费用:元
+停车费用:18
+出车行程:北京首都机场T3~国贸公寓</t>
+  </si>
+  <si>
+    <t>出车日期:2025.2.1
+车型:奔驰V260L
+车牌:京P03156
+姓名:康师傅
+电话:18600007271
+时间:13：00～19：30
+用车时长:6.5小时
+超出小时: 
+行驶里程:54公里
+超公里数:
+高速费用:元
+停车费用:
+出车行程:北京南站～颐和园～天安门广场～丽晶酒店～四季民福烤鸭店</t>
   </si>
 </sst>
 </file>
@@ -118,17 +447,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,23 +479,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,7 +510,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -190,44 +520,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -254,32 +584,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -306,24 +618,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -335,223 +629,431 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E320B30B-281A-A542-AAC0-A21413E09286}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="61.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="187">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="238">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="238">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="238">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:5" ht="165" customHeight="1">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="210" customHeight="1">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="210" customHeight="1">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="210" customHeight="1">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="195" customHeight="1">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="210" customHeight="1">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="210" customHeight="1">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="195" customHeight="1">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="356" customHeight="1">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="180" customHeight="1">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="314" customHeight="1">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="135" customHeight="1">
+      <c r="A13"/>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="342" customHeight="1">
+      <c r="A14"/>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="165" customHeight="1">
+      <c r="A15"/>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="225" customHeight="1">
+      <c r="A16"/>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="165" customHeight="1">
+      <c r="A17"/>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="195" customHeight="1">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="195" customHeight="1">
+      <c r="A19"/>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="255" customHeight="1">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="210" customHeight="1">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="135" customHeight="1">
+      <c r="A22"/>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="210" customHeight="1">
+      <c r="A23"/>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="150" customHeight="1">
+      <c r="A24"/>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="314" customHeight="1">
+      <c r="A25"/>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="195" customHeight="1">
+      <c r="A26"/>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2339E0F-C525-DD42-B4BE-70FEE403D928}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>